--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56077.76028237804</v>
+        <v>53198.81000705535</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8636583.597527931</v>
+        <v>8636583.597527921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>82.12082796090283</v>
+        <v>123.3657132948288</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>239.7562866506054</v>
+        <v>239.7562866506123</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>133.2137407186092</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>17.52926025969096</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>130.4850290902706</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>44.45311753961008</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -953,7 +953,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>33.89392690056398</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>173.5977776361368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>203.9503523974394</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>413.7827993952602</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9087358455983</v>
       </c>
       <c r="I8" t="n">
-        <v>151.8784752039287</v>
+        <v>117.5732796488439</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.39230501855772</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.384479679596</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.442320444379</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2240578582465</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3812715448344</v>
       </c>
       <c r="I9" t="n">
-        <v>61.39697089430918</v>
+        <v>61.39697089430916</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.66570489598183</v>
+        <v>49.6657048959818</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5776209906731</v>
+        <v>156.577620990673</v>
       </c>
       <c r="T9" t="n">
         <v>196.8868064860852</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9471326156048</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>113.6168614643314</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>29.01464655232607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,7 +1385,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>72.89138480951671</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>80.50796942908595</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1664,7 +1664,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>17.25588147840188</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>270.8164926812933</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292631</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590272</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>173.6268892744757</v>
+        <v>40.34116522361499</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>148.2384440624509</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>178.0637136418905</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>155.8651612894394</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>202.4425172951286</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H26" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060081882</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T26" t="n">
         <v>199.1970568374742</v>
@@ -2649,7 +2649,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H27" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T27" t="n">
         <v>188.3907690366107</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>23.94516103140406</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.453989791954</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440925</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.1807515910839</v>
       </c>
       <c r="S28" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584591</v>
       </c>
       <c r="T28" t="n">
         <v>217.4819944627618</v>
@@ -2770,16 +2770,16 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>98.14892099311459</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H29" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T29" t="n">
         <v>199.1970568374742</v>
@@ -2886,7 +2886,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T30" t="n">
         <v>188.3907690366107</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>166.2310699431609</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,19 +2956,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>89.5340822374514</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>140.453989791954</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440925</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108356</v>
+        <v>67.1807515910839</v>
       </c>
       <c r="S31" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584591</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1854515484204</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>72.6041077643463</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,10 +3478,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>251.2117044543522</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>95.12712756824166</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,13 +3904,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8253826161909023</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>54.32649042089665</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,13 +4141,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>63.841556412593</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>715.2685979499306</v>
+        <v>1519.236200934384</v>
       </c>
       <c r="C2" t="n">
-        <v>715.2685979499306</v>
+        <v>1519.236200934384</v>
       </c>
       <c r="D2" t="n">
-        <v>715.2685979499306</v>
+        <v>1160.970502327634</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W2" t="n">
-        <v>1475.334196275132</v>
+        <v>1892.701959195464</v>
       </c>
       <c r="X2" t="n">
-        <v>1101.868438014052</v>
+        <v>1519.236200934384</v>
       </c>
       <c r="Y2" t="n">
-        <v>1101.868438014052</v>
+        <v>1519.236200934384</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.6275373157412</v>
+        <v>188.5023158795657</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6913543878343</v>
+        <v>188.5023158795657</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>188.5023158795657</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>188.5023158795657</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>188.5023158795657</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>188.5023158795657</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>562.2760021459809</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>562.2760021459809</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>562.2760021459809</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>562.2760021459809</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="X4" t="n">
-        <v>562.2760021459809</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="Y4" t="n">
-        <v>562.2760021459809</v>
+        <v>188.5023158795657</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1640.777806202926</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C5" t="n">
-        <v>1640.777806202926</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D5" t="n">
-        <v>1640.777806202926</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E5" t="n">
-        <v>1254.989553604681</v>
+        <v>923.9266662611112</v>
       </c>
       <c r="F5" t="n">
-        <v>844.0036488150738</v>
+        <v>512.9407614715037</v>
       </c>
       <c r="G5" t="n">
-        <v>426.0398407132607</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>98.84512074926351</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,10 +4589,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
         <v>2247.308246834948</v>
@@ -4601,16 +4601,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1640.777806202926</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1640.777806202926</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y5" t="n">
-        <v>1640.777806202926</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641985</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598704</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>552.7776936648819</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="C7" t="n">
-        <v>383.841510736975</v>
+        <v>88.17927161891393</v>
       </c>
       <c r="D7" t="n">
-        <v>383.841510736975</v>
+        <v>88.17927161891393</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545818</v>
+        <v>88.17927161891393</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545818</v>
+        <v>88.17927161891393</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545818</v>
+        <v>88.17927161891393</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="W7" t="n">
-        <v>552.7776936648819</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="X7" t="n">
-        <v>552.7776936648819</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="Y7" t="n">
-        <v>552.7776936648819</v>
+        <v>257.1154545468208</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1582.359600692974</v>
+        <v>924.8240210971449</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.349143725863</v>
+        <v>924.8240210971449</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.083445119113</v>
+        <v>924.8240210971449</v>
       </c>
       <c r="E8" t="n">
-        <v>632.2951925208686</v>
+        <v>924.8240210971449</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3496917716651</v>
+        <v>917.8785203479414</v>
       </c>
       <c r="G8" t="n">
-        <v>207.3872681400892</v>
+        <v>499.9160967163655</v>
       </c>
       <c r="H8" t="n">
-        <v>207.3872681400892</v>
+        <v>172.7355554581853</v>
       </c>
       <c r="I8" t="n">
-        <v>53.97466692399959</v>
+        <v>53.97466692399962</v>
       </c>
       <c r="J8" t="n">
-        <v>169.8576899846485</v>
+        <v>169.8576899846486</v>
       </c>
       <c r="K8" t="n">
-        <v>464.2811062254477</v>
+        <v>464.2811062254482</v>
       </c>
       <c r="L8" t="n">
-        <v>881.8160163137435</v>
+        <v>881.8160163137441</v>
       </c>
       <c r="M8" t="n">
-        <v>1363.010599624217</v>
+        <v>1363.010599624218</v>
       </c>
       <c r="N8" t="n">
-        <v>1837.359416820289</v>
+        <v>1837.35941682029</v>
       </c>
       <c r="O8" t="n">
-        <v>2240.085916119059</v>
+        <v>2240.08591611906</v>
       </c>
       <c r="P8" t="n">
-        <v>2546.129282956164</v>
+        <v>2546.129282956166</v>
       </c>
       <c r="Q8" t="n">
-        <v>2698.73334619998</v>
+        <v>2698.733346199981</v>
       </c>
       <c r="R8" t="n">
-        <v>2698.73334619998</v>
+        <v>2643.791623959014</v>
       </c>
       <c r="S8" t="n">
-        <v>2698.73334619998</v>
+        <v>2467.645684888715</v>
       </c>
       <c r="T8" t="n">
-        <v>2698.73334619998</v>
+        <v>2249.017078379241</v>
       </c>
       <c r="U8" t="n">
-        <v>2698.73334619998</v>
+        <v>1995.255403774951</v>
       </c>
       <c r="V8" t="n">
-        <v>2698.73334619998</v>
+        <v>1664.192516431381</v>
       </c>
       <c r="W8" t="n">
-        <v>2345.964690929865</v>
+        <v>1311.423861161267</v>
       </c>
       <c r="X8" t="n">
-        <v>1972.498932668786</v>
+        <v>1311.423861161267</v>
       </c>
       <c r="Y8" t="n">
-        <v>1582.359600692974</v>
+        <v>1311.423861161267</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4962612823493</v>
+        <v>988.4962612823491</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0432320012223</v>
+        <v>814.0432320012221</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1088223399711</v>
+        <v>665.1088223399709</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8713673345155</v>
+        <v>505.8713673345154</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3368093614005</v>
+        <v>359.3368093614004</v>
       </c>
       <c r="G9" t="n">
         <v>221.4274370645487</v>
@@ -4878,28 +4878,28 @@
         <v>115.9918092414836</v>
       </c>
       <c r="I9" t="n">
-        <v>53.97466692399959</v>
+        <v>53.97466692399962</v>
       </c>
       <c r="J9" t="n">
-        <v>53.97466692399959</v>
+        <v>53.97466692399962</v>
       </c>
       <c r="K9" t="n">
-        <v>309.3392229986549</v>
+        <v>309.339222998655</v>
       </c>
       <c r="L9" t="n">
-        <v>714.1127788714197</v>
+        <v>714.1127788714198</v>
       </c>
       <c r="M9" t="n">
         <v>1238.443648280024</v>
       </c>
       <c r="N9" t="n">
-        <v>1792.359008994136</v>
+        <v>1792.359008994137</v>
       </c>
       <c r="O9" t="n">
-        <v>2232.66766964692</v>
+        <v>2232.667669646921</v>
       </c>
       <c r="P9" t="n">
-        <v>2569.051120440601</v>
+        <v>2569.051120440603</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.084591439862</v>
@@ -4917,7 +4917,7 @@
         <v>2061.712862232848</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.560754001106</v>
+        <v>1826.560754001105</v>
       </c>
       <c r="W9" t="n">
         <v>1572.323397272904</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.71389093221</v>
+        <v>359.221084817164</v>
       </c>
       <c r="C10" t="n">
-        <v>348.7777080043031</v>
+        <v>190.284901889257</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7777080043031</v>
+        <v>190.284901889257</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8646144219099</v>
+        <v>190.284901889257</v>
       </c>
       <c r="F10" t="n">
-        <v>53.97466692399959</v>
+        <v>190.284901889257</v>
       </c>
       <c r="G10" t="n">
-        <v>53.97466692399959</v>
+        <v>190.284901889257</v>
       </c>
       <c r="H10" t="n">
-        <v>53.97466692399959</v>
+        <v>190.284901889257</v>
       </c>
       <c r="I10" t="n">
-        <v>53.97466692399959</v>
+        <v>53.97466692399962</v>
       </c>
       <c r="J10" t="n">
-        <v>53.97466692399959</v>
+        <v>53.97466692399962</v>
       </c>
       <c r="K10" t="n">
-        <v>110.3475760609651</v>
+        <v>110.3475760609652</v>
       </c>
       <c r="L10" t="n">
-        <v>238.0119258459251</v>
+        <v>238.0119258459252</v>
       </c>
       <c r="M10" t="n">
-        <v>383.0052059260078</v>
+        <v>383.005205926008</v>
       </c>
       <c r="N10" t="n">
-        <v>529.9854863035549</v>
+        <v>529.9854863035551</v>
       </c>
       <c r="O10" t="n">
-        <v>649.7292691654712</v>
+        <v>649.7292691654716</v>
       </c>
       <c r="P10" t="n">
-        <v>728.6700795526781</v>
+        <v>728.6700795526785</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.6700795526781</v>
+        <v>728.6700795526785</v>
       </c>
       <c r="R10" t="n">
-        <v>728.6700795526781</v>
+        <v>613.9055730230508</v>
       </c>
       <c r="S10" t="n">
-        <v>728.6700795526781</v>
+        <v>613.9055730230508</v>
       </c>
       <c r="T10" t="n">
-        <v>728.6700795526781</v>
+        <v>613.9055730230508</v>
       </c>
       <c r="U10" t="n">
-        <v>728.6700795526781</v>
+        <v>613.9055730230508</v>
       </c>
       <c r="V10" t="n">
-        <v>728.6700795526781</v>
+        <v>359.221084817164</v>
       </c>
       <c r="W10" t="n">
-        <v>728.6700795526781</v>
+        <v>359.221084817164</v>
       </c>
       <c r="X10" t="n">
-        <v>728.6700795526781</v>
+        <v>359.221084817164</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.3623557624497</v>
+        <v>359.221084817164</v>
       </c>
     </row>
     <row r="11">
@@ -5018,19 +5018,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089883</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468559</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5139,28 +5139,28 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y12" t="n">
         <v>1138.808109517387</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.811212990069</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C13" t="n">
-        <v>708.1835515663147</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="D13" t="n">
-        <v>558.0669121539789</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="E13" t="n">
-        <v>410.1538185715858</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>176.8822156898954</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>176.8822156898954</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5230,19 +5230,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.343466104704</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V13" t="n">
-        <v>1701.658977898817</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W13" t="n">
-        <v>1412.241807861856</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X13" t="n">
-        <v>1184.252256963839</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.4596778203087</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5261,16 +5261,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5309,19 +5309,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>709.4168978689405</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C16" t="n">
-        <v>540.4807149410336</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D16" t="n">
-        <v>390.3640755286979</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>112.9912177599115</v>
       </c>
       <c r="F16" t="n">
         <v>95.56103444839442</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1401.275111879671</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1401.275111879671</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>1111.85794184271</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>1111.85794184271</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y16" t="n">
-        <v>891.0653626991802</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074197</v>
       </c>
       <c r="K17" t="n">
-        <v>1070.832524924162</v>
+        <v>618.259539097266</v>
       </c>
       <c r="L17" t="n">
-        <v>1521.86673817257</v>
+        <v>1237.70670236413</v>
       </c>
       <c r="M17" t="n">
-        <v>2055.398642844495</v>
+        <v>2216.257005193958</v>
       </c>
       <c r="N17" t="n">
-        <v>2602.177459903277</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5595,37 +5595,37 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>854.4007383484559</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>854.4007383484559</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>704.2840989361201</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>556.371005353727</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558167</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5671,13 +5671,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1780.96276986786</v>
+        <v>1915.594814363677</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.196154437386</v>
+        <v>1915.594814363677</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1626.491947489321</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>1371.807459283434</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>1082.390289246473</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>854.4007383484559</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>854.4007383484559</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5735,7 +5735,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
@@ -5744,58 +5744,58 @@
         <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277727</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196074</v>
+        <v>1898.85891762269</v>
       </c>
       <c r="M20" t="n">
-        <v>2337.214217867999</v>
+        <v>2432.390822294614</v>
       </c>
       <c r="N20" t="n">
-        <v>3316.966490094645</v>
+        <v>2979.169639353396</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5820,7 +5820,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5829,25 +5829,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426848</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902951</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>657.7758834233819</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C22" t="n">
-        <v>488.839700495475</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D22" t="n">
-        <v>488.839700495475</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E22" t="n">
-        <v>488.839700495475</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F22" t="n">
-        <v>488.839700495475</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G22" t="n">
         <v>339.1038984121913</v>
@@ -5908,13 +5908,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.890966501056</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V22" t="n">
-        <v>1288.206478295169</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="W22" t="n">
-        <v>1288.206478295169</v>
+        <v>1096.30708777774</v>
       </c>
       <c r="X22" t="n">
-        <v>1060.216927397152</v>
+        <v>868.3175368797226</v>
       </c>
       <c r="Y22" t="n">
-        <v>839.4243482536216</v>
+        <v>688.4551998677121</v>
       </c>
     </row>
     <row r="23">
@@ -5966,49 +5966,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074197</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.259539097266</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6057,7 +6057,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6066,25 +6066,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426848</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902951</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
         <v>95.56103444839442</v>
@@ -6145,13 +6145,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1542.890966501055</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1385.451409643036</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208126</v>
+        <v>1130.766921437149</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838521</v>
+        <v>841.349751400188</v>
       </c>
       <c r="X25" t="n">
-        <v>481.6968904858347</v>
+        <v>613.3602005021706</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>392.5676213586405</v>
       </c>
     </row>
     <row r="26">
@@ -6200,55 +6200,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C26" t="n">
         <v>1949.298676890959</v>
       </c>
       <c r="D26" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E26" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963571</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127636</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160777</v>
       </c>
       <c r="I26" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507186</v>
       </c>
       <c r="K26" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074383984</v>
       </c>
       <c r="L26" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294992</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234026</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.58344915113</v>
       </c>
       <c r="O26" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610265</v>
       </c>
       <c r="P26" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297611</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403616</v>
       </c>
       <c r="R26" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S26" t="n">
         <v>4606.950144347201</v>
@@ -6260,7 +6260,7 @@
         <v>4152.297666746069</v>
       </c>
       <c r="V26" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W26" t="n">
         <v>3468.466124132384</v>
@@ -6269,7 +6269,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="27">
@@ -6279,61 +6279,61 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.6608414294086</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C27" t="n">
-        <v>769.2078121482816</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D27" t="n">
-        <v>620.2734024870304</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E27" t="n">
-        <v>461.0359474815749</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F27" t="n">
-        <v>314.5013895084599</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G27" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H27" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I27" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J27" t="n">
-        <v>241.4963299034529</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="K27" t="n">
-        <v>572.0050724668117</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="L27" t="n">
-        <v>1062.737405310563</v>
+        <v>562.2602880588695</v>
       </c>
       <c r="M27" t="n">
-        <v>1654.75575956269</v>
+        <v>1154.278642310995</v>
       </c>
       <c r="N27" t="n">
-        <v>2276.851722962027</v>
+        <v>1776.374605710329</v>
       </c>
       <c r="O27" t="n">
-        <v>2323.25108071052</v>
+        <v>2323.251080710521</v>
       </c>
       <c r="P27" t="n">
-        <v>2323.25108071052</v>
+        <v>2323.251080710521</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S27" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.906943855537</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U27" t="n">
         <v>2016.877442379908</v>
@@ -6345,7 +6345,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.63647721443</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y27" t="n">
         <v>1111.876178449477</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>562.9550599890988</v>
+        <v>1099.422008959557</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7680286442462</v>
+        <v>930.4858260316505</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6513892319105</v>
+        <v>780.3691866193147</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7382956495174</v>
+        <v>632.4560930369216</v>
       </c>
       <c r="F28" t="n">
-        <v>93.84834815160703</v>
+        <v>485.5661455390112</v>
       </c>
       <c r="G28" t="n">
-        <v>93.84834815160703</v>
+        <v>318.3519507135901</v>
       </c>
       <c r="H28" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520204</v>
       </c>
       <c r="I28" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J28" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411604</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117232</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948563</v>
       </c>
       <c r="M28" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139314</v>
       </c>
       <c r="N28" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.14647393102</v>
       </c>
       <c r="O28" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946049</v>
       </c>
       <c r="P28" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782252</v>
       </c>
       <c r="Q28" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="R28" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294188</v>
       </c>
       <c r="S28" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033118</v>
       </c>
       <c r="T28" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.7041817475</v>
       </c>
       <c r="U28" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062227</v>
       </c>
       <c r="V28" t="n">
-        <v>1482.802824897847</v>
+        <v>1669.627968062227</v>
       </c>
       <c r="W28" t="n">
-        <v>1193.385654860886</v>
+        <v>1380.210798025266</v>
       </c>
       <c r="X28" t="n">
-        <v>965.3961039628687</v>
+        <v>1281.070473789797</v>
       </c>
       <c r="Y28" t="n">
-        <v>744.6035248193385</v>
+        <v>1281.070473789797</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C29" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D29" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E29" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963568</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127632</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160639</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507179</v>
       </c>
       <c r="K29" t="n">
-        <v>893.7741287892018</v>
+        <v>842.9746074383977</v>
       </c>
       <c r="L29" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.49438794417</v>
       </c>
       <c r="M29" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N29" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800308</v>
       </c>
       <c r="O29" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259444</v>
       </c>
       <c r="P29" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946789</v>
       </c>
       <c r="Q29" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052794</v>
       </c>
       <c r="R29" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U29" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V29" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W29" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X29" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="30">
@@ -6516,61 +6516,61 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.6608414294086</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C30" t="n">
-        <v>769.2078121482816</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D30" t="n">
-        <v>620.2734024870304</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E30" t="n">
-        <v>461.0359474815749</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F30" t="n">
-        <v>314.5013895084599</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G30" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H30" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J30" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="K30" t="n">
-        <v>424.3570907149658</v>
+        <v>572.0050724668096</v>
       </c>
       <c r="L30" t="n">
-        <v>915.089423558717</v>
+        <v>1062.737405310559</v>
       </c>
       <c r="M30" t="n">
-        <v>1507.107777810845</v>
+        <v>1384.839916296241</v>
       </c>
       <c r="N30" t="n">
-        <v>1507.107777810845</v>
+        <v>2006.935879695575</v>
       </c>
       <c r="O30" t="n">
-        <v>2053.984252811039</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="P30" t="n">
-        <v>2473.567771237115</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S30" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.906943855537</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U30" t="n">
         <v>2016.877442379908</v>
@@ -6582,7 +6582,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.63647721443</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y30" t="n">
         <v>1111.876178449477</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>495.0957149476001</v>
+        <v>949.3053695472216</v>
       </c>
       <c r="C31" t="n">
-        <v>326.1595320196932</v>
+        <v>780.3691866193147</v>
       </c>
       <c r="D31" t="n">
-        <v>326.1595320196932</v>
+        <v>780.3691866193147</v>
       </c>
       <c r="E31" t="n">
-        <v>326.1595320196932</v>
+        <v>632.4560930369216</v>
       </c>
       <c r="F31" t="n">
-        <v>326.1595320196932</v>
+        <v>485.5661455390112</v>
       </c>
       <c r="G31" t="n">
-        <v>235.7210651131766</v>
+        <v>318.3519507135901</v>
       </c>
       <c r="H31" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520204</v>
       </c>
       <c r="I31" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J31" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411604</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117232</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948563</v>
       </c>
       <c r="M31" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139314</v>
       </c>
       <c r="N31" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.14647393102</v>
       </c>
       <c r="O31" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946049</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782252</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="R31" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294188</v>
       </c>
       <c r="S31" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033118</v>
       </c>
       <c r="T31" t="n">
-        <v>1958.704181747508</v>
+        <v>2178.382964033118</v>
       </c>
       <c r="U31" t="n">
-        <v>1669.627968062235</v>
+        <v>1889.306750347845</v>
       </c>
       <c r="V31" t="n">
-        <v>1414.943479856348</v>
+        <v>1634.622262141958</v>
       </c>
       <c r="W31" t="n">
-        <v>1125.526309819387</v>
+        <v>1345.205092104997</v>
       </c>
       <c r="X31" t="n">
-        <v>897.5367589213699</v>
+        <v>1117.21554120698</v>
       </c>
       <c r="Y31" t="n">
-        <v>676.7441797778398</v>
+        <v>1117.21554120698</v>
       </c>
     </row>
     <row r="32">
@@ -6698,10 +6698,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6783,16 +6783,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998286</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2190.770766644916</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="35">
@@ -6917,19 +6917,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6938,10 +6938,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.55866301478</v>
@@ -6950,10 +6950,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7014,19 +7014,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="38">
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7260,19 +7260,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7494,13 +7494,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474262</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>148.6919058973624</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7643,25 +7643,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7731,22 +7731,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2382.47666296148</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2162.875197984421</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1873.799971328619</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1619.115483122732</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1329.698313085771</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,7 +8219,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504498</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142005</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.00441415481723</v>
+        <v>50.00441415481718</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>165.4993199086538</v>
+        <v>165.4993199086519</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>288.0478149561032</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>170.1140909277323</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476859</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>258.621178561693</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400276</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>51.31264782911217</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>51.31264782909125</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>51.31264782909096</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>51.31264782911214</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>109.4846820668076</v>
+        <v>109.4846820668007</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>94.35543628911113</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>64.24704548523484</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23470,7 +23470,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056117</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>128.1651665445294</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>15.39534552431957</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238261</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S19" t="n">
-        <v>16.14213605696617</v>
+        <v>149.4278601078269</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>17.78736419657736</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>40.52093971020432</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24382,7 +24382,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>130.3466769161735</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>143.3016600672238</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>127.5607343959226</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>13.60091023877641</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>76.00797063971552</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25081,16 +25081,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>144.801342562942</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,10 +25366,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>0.9259388694757718</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>72.11969353038617</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,13 +25792,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>111.1976478713722</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>117.1847295890516</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1158646.532128996</v>
+        <v>1158646.532128997</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1096418.634340168</v>
+        <v>1096418.634340169</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1096418.634340169</v>
+        <v>1096418.634340168</v>
       </c>
     </row>
     <row r="9">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>324930.7156687062</v>
+        <v>324930.7156687065</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457131</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457131</v>
+        <v>328416.7079457129</v>
       </c>
       <c r="E2" t="n">
         <v>317665.4295095865</v>
       </c>
       <c r="F2" t="n">
-        <v>317665.4295095865</v>
+        <v>317665.4295095864</v>
       </c>
       <c r="G2" t="n">
         <v>317665.4295095865</v>
       </c>
       <c r="H2" t="n">
-        <v>317665.4295095865</v>
+        <v>317665.4295095864</v>
       </c>
       <c r="I2" t="n">
         <v>317665.4295095864</v>
       </c>
       <c r="J2" t="n">
-        <v>322673.1908474238</v>
+        <v>322673.1908474236</v>
       </c>
       <c r="K2" t="n">
-        <v>322673.1908474237</v>
+        <v>322673.1908474236</v>
       </c>
       <c r="L2" t="n">
+        <v>322858.6398760026</v>
+      </c>
+      <c r="M2" t="n">
         <v>322858.6398760024</v>
-      </c>
-      <c r="M2" t="n">
-        <v>322858.6398760022</v>
       </c>
       <c r="N2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="O2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="P2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760025</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>415.0177423585053</v>
+        <v>415.0177423587219</v>
       </c>
       <c r="E3" t="n">
-        <v>726985.2433466802</v>
+        <v>726985.2433466798</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>369281.3433869618</v>
+        <v>369281.3433869592</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>7103.649503565541</v>
+        <v>7103.649503568467</v>
       </c>
       <c r="M3" t="n">
-        <v>129543.6141568661</v>
+        <v>129543.614156866</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196090.2818842299</v>
+        <v>196090.2818842303</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>200967.9389534036</v>
+        <v>200967.9389534035</v>
       </c>
       <c r="E4" t="n">
         <v>25090.72367499382</v>
@@ -26430,31 +26430,31 @@
         <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499385</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499377</v>
+        <v>25090.72367499385</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499385</v>
       </c>
       <c r="J4" t="n">
-        <v>5781.971894855157</v>
+        <v>5781.971894855411</v>
       </c>
       <c r="K4" t="n">
-        <v>5781.971894855116</v>
+        <v>5781.971894855411</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670445</v>
+        <v>5067.59260167044</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.59260167046</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670442</v>
+        <v>5067.592601670456</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670449</v>
+        <v>5067.592601670441</v>
       </c>
       <c r="P4" t="n">
         <v>5067.592601670437</v>
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82890.59130179131</v>
+        <v>82890.59130179134</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26482,13 +26482,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>100930.0394572385</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-543986.5234934776</v>
+        <v>-544008.3109452091</v>
       </c>
       <c r="C6" t="n">
-        <v>44493.12395457228</v>
+        <v>44493.12395457216</v>
       </c>
       <c r="D6" t="n">
-        <v>44143.15994815971</v>
+        <v>44143.15994815933</v>
       </c>
       <c r="E6" t="n">
-        <v>-530794.0557658012</v>
+        <v>-530861.2512560267</v>
       </c>
       <c r="F6" t="n">
-        <v>196191.187580879</v>
+        <v>196123.992090653</v>
       </c>
       <c r="G6" t="n">
-        <v>196191.187580879</v>
+        <v>196123.9920906535</v>
       </c>
       <c r="H6" t="n">
-        <v>196191.187580879</v>
+        <v>196123.9920906531</v>
       </c>
       <c r="I6" t="n">
-        <v>196191.1875808789</v>
+        <v>196123.9920906531</v>
       </c>
       <c r="J6" t="n">
-        <v>-153320.1638916318</v>
+        <v>-153356.0608734938</v>
       </c>
       <c r="K6" t="n">
-        <v>215961.1794953301</v>
+        <v>215925.2825134654</v>
       </c>
       <c r="L6" t="n">
-        <v>209564.8679468593</v>
+        <v>209530.1300214208</v>
       </c>
       <c r="M6" t="n">
-        <v>87124.90329355856</v>
+        <v>87090.16536812315</v>
       </c>
       <c r="N6" t="n">
-        <v>216668.5174504249</v>
+        <v>216633.7795249891</v>
       </c>
       <c r="O6" t="n">
-        <v>216668.5174504247</v>
+        <v>216633.7795249892</v>
       </c>
       <c r="P6" t="n">
-        <v>216668.5174504248</v>
+        <v>216633.7795249893</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>378.0846073188822</v>
+        <v>378.0846073188824</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26759,10 +26759,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716382</v>
       </c>
       <c r="K3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716382</v>
       </c>
       <c r="L3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.6833365499949</v>
+        <v>674.6833365499953</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.340943101795574</v>
+        <v>0.3409431017957445</v>
       </c>
       <c r="E3" t="n">
-        <v>711.692093274416</v>
+        <v>711.6920932744158</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,13 +26981,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>268.2643481230873</v>
+        <v>268.2643481230837</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.93445162529224</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3960637954394315</v>
+        <v>0.3960637954396589</v>
       </c>
       <c r="E4" t="n">
-        <v>519.8295940549353</v>
+        <v>519.829594054935</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>652.8786940447131</v>
+        <v>652.8786940447135</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.8295940549353</v>
+        <v>519.829594054935</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3960637954394315</v>
+        <v>0.3960637954396589</v>
       </c>
       <c r="M4" t="n">
-        <v>519.8295940549353</v>
+        <v>519.829594054935</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>299.809542111359</v>
+        <v>258.564656777433</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>22.95714812318596</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>207.5058451983933</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>283.2991409305243</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>107.4781987052512</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>122.2769619412312</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>112.9252207004542</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>161.3225393735682</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9087358455983</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.30519555508479</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.39230501855778</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.384479679596</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.442320444379</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2240578582465</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3091874436214</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1654225737041</v>
+        <v>156.165422573704</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9471326156048</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.15649173767365</v>
+        <v>45.15649173767363</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.07126754654318</v>
+        <v>29.07126754654314</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6375476427565</v>
+        <v>33.02068617842504</v>
       </c>
       <c r="S10" t="n">
         <v>212.1348243938526</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818407065907</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>189.5700067997687</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -28734,7 +28734,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>9.897860309138196e-13</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.519938119874902</v>
+        <v>1.519938119874903</v>
       </c>
       <c r="H8" t="n">
-        <v>15.56606627016885</v>
+        <v>15.56606627016886</v>
       </c>
       <c r="I8" t="n">
-        <v>58.59741436647722</v>
+        <v>58.59741436647726</v>
       </c>
       <c r="J8" t="n">
-        <v>129.0028480017326</v>
+        <v>129.0028480017327</v>
       </c>
       <c r="K8" t="n">
-        <v>193.3418286160372</v>
+        <v>193.3418286160374</v>
       </c>
       <c r="L8" t="n">
-        <v>239.8576348521588</v>
+        <v>239.857634852159</v>
       </c>
       <c r="M8" t="n">
-        <v>266.8878343914841</v>
+        <v>266.8878343914843</v>
       </c>
       <c r="N8" t="n">
-        <v>271.2063585745787</v>
+        <v>271.2063585745789</v>
       </c>
       <c r="O8" t="n">
-        <v>256.0924738950726</v>
+        <v>256.0924738950728</v>
       </c>
       <c r="P8" t="n">
-        <v>218.569001560661</v>
+        <v>218.5690015606611</v>
       </c>
       <c r="Q8" t="n">
         <v>164.136217642641</v>
       </c>
       <c r="R8" t="n">
-        <v>95.4768129225919</v>
+        <v>95.47681292259196</v>
       </c>
       <c r="S8" t="n">
-        <v>34.63558990664936</v>
+        <v>34.63558990664939</v>
       </c>
       <c r="T8" t="n">
-        <v>6.653529119752387</v>
+        <v>6.653529119752392</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1215950495899921</v>
+        <v>0.1215950495899922</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.813238589327407</v>
+        <v>0.8132385893274076</v>
       </c>
       <c r="H9" t="n">
-        <v>7.854172691662064</v>
+        <v>7.854172691662068</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9996619571059</v>
+        <v>27.99966195710592</v>
       </c>
       <c r="J9" t="n">
-        <v>76.83321251184947</v>
+        <v>76.83321251184951</v>
       </c>
       <c r="K9" t="n">
-        <v>131.3201979967857</v>
+        <v>131.3201979967858</v>
       </c>
       <c r="L9" t="n">
-        <v>176.5762121256723</v>
+        <v>176.5762121256724</v>
       </c>
       <c r="M9" t="n">
-        <v>206.0561109887908</v>
+        <v>206.0561109887909</v>
       </c>
       <c r="N9" t="n">
-        <v>211.5098031075698</v>
+        <v>211.5098031075699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.4901480493151</v>
+        <v>193.4901480493153</v>
       </c>
       <c r="P9" t="n">
-        <v>155.2929022023537</v>
+        <v>155.2929022023538</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.8091925604599</v>
+        <v>103.80919256046</v>
       </c>
       <c r="R9" t="n">
-        <v>50.49212925666131</v>
+        <v>50.49212925666134</v>
       </c>
       <c r="S9" t="n">
         <v>15.10555011316477</v>
       </c>
       <c r="T9" t="n">
-        <v>3.277922208736345</v>
+        <v>3.277922208736348</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05350253877153996</v>
+        <v>0.05350253877153999</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6817919148373285</v>
+        <v>0.6817919148373289</v>
       </c>
       <c r="H10" t="n">
-        <v>6.061749933735525</v>
+        <v>6.061749933735529</v>
       </c>
       <c r="I10" t="n">
-        <v>20.50334231165348</v>
+        <v>20.5033423116535</v>
       </c>
       <c r="J10" t="n">
-        <v>48.20268837899912</v>
+        <v>48.20268837899915</v>
       </c>
       <c r="K10" t="n">
-        <v>79.21182428746415</v>
+        <v>79.2118242874642</v>
       </c>
       <c r="L10" t="n">
         <v>101.3638634113607</v>
@@ -31692,28 +31692,28 @@
         <v>106.8739817049096</v>
       </c>
       <c r="N10" t="n">
-        <v>104.3327572950614</v>
+        <v>104.3327572950615</v>
       </c>
       <c r="O10" t="n">
-        <v>96.36818810809807</v>
+        <v>96.36818810809812</v>
       </c>
       <c r="P10" t="n">
-        <v>82.4596330454165</v>
+        <v>82.45963304541655</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.09077570515121</v>
+        <v>57.09077570515124</v>
       </c>
       <c r="R10" t="n">
-        <v>30.65584373441296</v>
+        <v>30.65584373441298</v>
       </c>
       <c r="S10" t="n">
-        <v>11.88177364311962</v>
+        <v>11.88177364311963</v>
       </c>
       <c r="T10" t="n">
-        <v>2.913110908850403</v>
+        <v>2.913110908850404</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03718864990021796</v>
+        <v>0.03718864990021798</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32081,7 +32081,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233475</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H21" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987504</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q22" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H24" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987504</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q25" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J26" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K26" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M26" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P26" t="n">
-        <v>785.0773883687524</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R26" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S26" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T26" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U26" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H27" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>634.2436048745724</v>
+        <v>611.6977534235737</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504278</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927615</v>
       </c>
       <c r="O27" t="n">
-        <v>189.4642825742353</v>
+        <v>694.9967242426184</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286941</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H28" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J28" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K28" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M28" t="n">
-        <v>383.8803574265021</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N28" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P28" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q28" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R28" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T28" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J29" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K29" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M29" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P29" t="n">
-        <v>785.0773883687524</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R29" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S29" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T29" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U29" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H30" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K30" t="n">
-        <v>471.6886536848224</v>
+        <v>471.688653684821</v>
       </c>
       <c r="L30" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745706</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504301</v>
+        <v>467.4901056247271</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927615</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426184</v>
       </c>
       <c r="P30" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>221.0369088927402</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H31" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J31" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K31" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M31" t="n">
-        <v>383.8803574265021</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N31" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P31" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q31" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R31" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T31" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33503,10 +33503,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,7 +33515,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34214,7 +34214,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435295</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047517</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.0535586471201</v>
+        <v>117.0535586471202</v>
       </c>
       <c r="K8" t="n">
-        <v>297.3973901422214</v>
+        <v>297.3973901422215</v>
       </c>
       <c r="L8" t="n">
-        <v>421.7524344326221</v>
+        <v>421.7524344326222</v>
       </c>
       <c r="M8" t="n">
-        <v>486.0551346570438</v>
+        <v>486.0551346570441</v>
       </c>
       <c r="N8" t="n">
-        <v>479.1402193899719</v>
+        <v>479.1402193899721</v>
       </c>
       <c r="O8" t="n">
-        <v>406.7944437361313</v>
+        <v>406.7944437361314</v>
       </c>
       <c r="P8" t="n">
-        <v>309.1347139768741</v>
+        <v>309.1347139768742</v>
       </c>
       <c r="Q8" t="n">
         <v>154.1455184280962</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.9439960350053</v>
+        <v>257.9439960350054</v>
       </c>
       <c r="L9" t="n">
-        <v>408.8621776492573</v>
+        <v>408.8621776492574</v>
       </c>
       <c r="M9" t="n">
-        <v>529.6271408167723</v>
+        <v>529.6271408167725</v>
       </c>
       <c r="N9" t="n">
-        <v>559.5104653677899</v>
+        <v>559.5104653677902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.7562228816002</v>
+        <v>444.7562228816004</v>
       </c>
       <c r="P9" t="n">
-        <v>339.7812634279607</v>
+        <v>339.7812634279608</v>
       </c>
       <c r="Q9" t="n">
-        <v>129.3267383830921</v>
+        <v>129.3267383830903</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.9423324615813</v>
+        <v>56.94233246158134</v>
       </c>
       <c r="L10" t="n">
-        <v>128.9538886716768</v>
+        <v>128.9538886716769</v>
       </c>
       <c r="M10" t="n">
         <v>146.4578586667502</v>
       </c>
       <c r="N10" t="n">
-        <v>148.46492967429</v>
+        <v>148.4649296742901</v>
       </c>
       <c r="O10" t="n">
-        <v>120.9533160221377</v>
+        <v>120.9533160221378</v>
       </c>
       <c r="P10" t="n">
-        <v>79.73819231030998</v>
+        <v>79.73819231031004</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013292</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K17" t="n">
-        <v>625.2391015115037</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200641</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230589</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248953</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509642</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407862</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>661.336699126565</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400177</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O20" t="n">
-        <v>766.6741794499121</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.109295463624</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127288</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427823</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230589</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248953</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282465</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127288</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L26" t="n">
-        <v>625.777556066439</v>
+        <v>677.0902038955487</v>
       </c>
       <c r="M26" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N26" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O26" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P26" t="n">
-        <v>605.157040442574</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>495.6892250946982</v>
+        <v>473.1433736436994</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284094</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094282</v>
       </c>
       <c r="O27" t="n">
-        <v>46.86803812979091</v>
+        <v>552.4004797981739</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426726</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211065995</v>
       </c>
       <c r="K28" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642048</v>
       </c>
       <c r="L28" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243769</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883416</v>
       </c>
       <c r="N28" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209149</v>
       </c>
       <c r="O28" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606348</v>
       </c>
       <c r="P28" t="n">
-        <v>293.4650856931358</v>
+        <v>293.465085693135</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044792</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K29" t="n">
-        <v>525.6867728671534</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L29" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M29" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N29" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P29" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R29" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136952</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K30" t="n">
-        <v>333.8472147104634</v>
+        <v>333.847214710462</v>
       </c>
       <c r="L30" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946964</v>
       </c>
       <c r="M30" t="n">
-        <v>597.9983376284117</v>
+        <v>325.3560717027087</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>628.3797610094282</v>
       </c>
       <c r="O30" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981739</v>
       </c>
       <c r="P30" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>81.0551348067187</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211065995</v>
       </c>
       <c r="K31" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642048</v>
       </c>
       <c r="L31" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243769</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883416</v>
       </c>
       <c r="N31" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209149</v>
       </c>
       <c r="O31" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606348</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931358</v>
+        <v>293.465085693135</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044792</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37151,10 +37151,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,7 +37163,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
